--- a/public/templates/Student Details.xlsx
+++ b/public/templates/Student Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f35561c282e48b7a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{31DBD227-2952-465F-8129-C07C80C92EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93306A24-2018-4E2C-ABF6-20BD60145446}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{31DBD227-2952-465F-8129-C07C80C92EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E9C11FC-0A06-46ED-B8FB-BCDA47A0EFE9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD93B797-979F-4E41-89D6-1E2B099A69A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Student First Name</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>Student Last Name</t>
+  </si>
+  <si>
+    <t>Class Id</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Admission Date</t>
   </si>
 </sst>
 </file>
@@ -77,9 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A58D9-FA29-48AB-B2A1-AB543D09DACD}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,9 +416,10 @@
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +429,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{BD2632BD-909B-44C0-A1F3-DC4823C39F89}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DD-MM-YYYY" sqref="F1:F1048576" xr:uid="{765EAF31-89BF-4610-9CC3-0421A8CF0CAB}">
+      <formula1>45658</formula1>
+      <formula2>46388</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/templates/Student Details.xlsx
+++ b/public/templates/Student Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f35561c282e48b7a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{31DBD227-2952-465F-8129-C07C80C92EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E9C11FC-0A06-46ED-B8FB-BCDA47A0EFE9}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{31DBD227-2952-465F-8129-C07C80C92EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5FB4485-B760-4AFF-80AE-1474437F9B97}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD93B797-979F-4E41-89D6-1E2B099A69A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Student First Name</t>
   </si>
@@ -36,13 +36,16 @@
     <t>Student Last Name</t>
   </si>
   <si>
-    <t>Class Id</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Admission Date</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A58D9-FA29-48AB-B2A1-AB543D09DACD}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,10 +419,11 @@
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,21 +434,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{BD2632BD-909B-44C0-A1F3-DC4823C39F89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{BD2632BD-909B-44C0-A1F3-DC4823C39F89}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DD-MM-YYYY" sqref="F1:F1048576" xr:uid="{765EAF31-89BF-4610-9CC3-0421A8CF0CAB}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DD-MM-YYYY" sqref="G1:G1048576" xr:uid="{765EAF31-89BF-4610-9CC3-0421A8CF0CAB}">
       <formula1>45658</formula1>
       <formula2>46388</formula2>
     </dataValidation>
